--- a/basic_analysis/Matlab_scripts/Data_Input_Basic_Analysis.xlsx
+++ b/basic_analysis/Matlab_scripts/Data_Input_Basic_Analysis.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkuehn\git\bs_Twitch\basic_analysis\Matlab_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C2E72-262F-4AE1-B927-7DA87B6AEA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7301C64-AACC-42F6-8EB6-AC86937F8D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="3051" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
-    <sheet name="chpA rev PC (incomplete)" sheetId="45" r:id="rId2"/>
-    <sheet name="FimW double Jenal Fluo" sheetId="43" r:id="rId3"/>
-    <sheet name="FimWX Jenal single" sheetId="42" r:id="rId4"/>
-    <sheet name="FimW Jenal PC" sheetId="41" r:id="rId5"/>
-    <sheet name="PilG" sheetId="16" r:id="rId6"/>
-    <sheet name="PilG pmut" sheetId="23" r:id="rId7"/>
-    <sheet name="PilGH rev PC" sheetId="37" r:id="rId8"/>
-    <sheet name="PilH" sheetId="44" r:id="rId9"/>
-    <sheet name="FimX" sheetId="24" r:id="rId10"/>
-    <sheet name="FimX osc" sheetId="34" r:id="rId11"/>
-    <sheet name="PilZ" sheetId="33" r:id="rId12"/>
-    <sheet name="ChpB PilK rev PC" sheetId="28" r:id="rId13"/>
-    <sheet name="ChpB osc" sheetId="32" r:id="rId14"/>
-    <sheet name="T8V rev PC" sheetId="27" r:id="rId15"/>
-    <sheet name="T8V osc" sheetId="7" r:id="rId16"/>
-    <sheet name="ChpB" sheetId="18" r:id="rId17"/>
-    <sheet name="PilJ rev PC" sheetId="13" r:id="rId18"/>
-    <sheet name="PilB osc" sheetId="10" r:id="rId19"/>
-    <sheet name="PilBTU" sheetId="1" r:id="rId20"/>
+    <sheet name="PilK plasmid" sheetId="46" r:id="rId2"/>
+    <sheet name="chpA rev PC (incomplete)" sheetId="45" r:id="rId3"/>
+    <sheet name="FimW double Jenal Fluo" sheetId="43" r:id="rId4"/>
+    <sheet name="FimWX Jenal single" sheetId="42" r:id="rId5"/>
+    <sheet name="FimW Jenal PC" sheetId="41" r:id="rId6"/>
+    <sheet name="PilG" sheetId="16" r:id="rId7"/>
+    <sheet name="PilG pmut" sheetId="23" r:id="rId8"/>
+    <sheet name="PilGH rev PC" sheetId="37" r:id="rId9"/>
+    <sheet name="PilH" sheetId="44" r:id="rId10"/>
+    <sheet name="FimX" sheetId="24" r:id="rId11"/>
+    <sheet name="FimX osc" sheetId="34" r:id="rId12"/>
+    <sheet name="PilZ" sheetId="33" r:id="rId13"/>
+    <sheet name="ChpB PilK rev PC" sheetId="28" r:id="rId14"/>
+    <sheet name="ChpB osc" sheetId="32" r:id="rId15"/>
+    <sheet name="T8V rev PC" sheetId="27" r:id="rId16"/>
+    <sheet name="T8V osc" sheetId="7" r:id="rId17"/>
+    <sheet name="ChpB" sheetId="18" r:id="rId18"/>
+    <sheet name="PilJ rev PC" sheetId="13" r:id="rId19"/>
+    <sheet name="PilB osc" sheetId="10" r:id="rId20"/>
+    <sheet name="PilBTU" sheetId="1" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="79">
   <si>
     <t>5s interval-2h37</t>
   </si>
@@ -270,6 +271,12 @@
   </si>
   <si>
     <t>1537 fliC- ChpA-AAA cpdA-</t>
+  </si>
+  <si>
+    <t>1300 fliC- pilK- pCuAI_mNG_PilK</t>
+  </si>
+  <si>
+    <t>1659 fliC- pilK- pCuAIgent_mNG_PilK</t>
   </si>
 </sst>
 </file>
@@ -1125,9 +1132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A84C868-F8EF-436A-A77E-F38D40BDB78E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1138,26 +1147,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>76</v>
+      <c r="A1" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="2">
-        <v>20230120</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>20230202</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2">
-        <v>202301220</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3"/>
+      <c r="B3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1167,6 +1172,202 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ED437A-B0D3-41FB-BF93-E93864D5F26A}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>20200717</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20200717</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20200717</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20201002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20201002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>20201002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7"/>
+      <c r="B7" s="3"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8"/>
+      <c r="B8" s="3"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9"/>
+      <c r="B9" s="3"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10"/>
+      <c r="B10" s="3"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="B11" s="3"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="B12" s="3"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+      <c r="B19" s="3"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20" s="3"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" s="3"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22" s="3"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23" s="3"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+      <c r="B24" s="3"/>
+      <c r="C24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4A07B3-3F53-4259-ABA2-86424D2FCDA9}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1484,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E4660C-2B7E-4550-A2C2-FC6143C17789}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -2185,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD30CBFA-FEAD-4F9B-97D2-8D46D9CF912B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2261,12 +2462,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C35DAA-EA26-4F9F-B405-0AB05C38940A}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C68"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2963,6 +3164,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="2">
+        <v>20230125</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C8">
     <sortCondition ref="A1:A8"/>
@@ -2972,7 +3184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397529DF-D713-4447-BBA3-4C154927BDB7}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -3232,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B26B7D-7EA6-486C-9CAD-6155098EF9EA}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3397,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863DA22-C7EA-4091-BCE1-11E26D2DE89C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3481,7 +3693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF57C8B-6904-47AA-8A7C-425121F07E92}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -3605,7 +3817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D2ED9-BB9D-4E75-A276-4347FA42771D}">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -3840,7 +4052,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F304C3F-CA05-4595-97D8-B3FEDECF5B5D}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2">
+        <v>20220831</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20210916</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20210917</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20210929</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20210914</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="6">
+        <v>20210914</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20230120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75CF320-837C-4AE5-BE33-E5C2375838A9}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3899,7 +4210,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.53515625" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>20201002</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>20200717</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>20200717</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>20200717</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>20200717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>20201002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>20201002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>20201002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06FE746-2451-4C98-B6C2-D90BAB0AE1CB}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3943,114 +4361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="22.53515625" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>20201002</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>20200717</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>20200717</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>20200717</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>20200717</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>20201002</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>20201002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>20201002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2012FA-DFD4-4543-8AC3-8B330394A836}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4226,7 +4537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC558C1-C908-4D68-87CC-0CA0F615730C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4357,7 +4668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D80A3FE-68A1-4C3A-BAC2-168F8E7FE300}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4472,7 +4783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105CD8F9-264D-45C6-88B9-650353853019}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -4740,7 +5051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDFEC35-B532-4DE6-9DBB-87A54283D35A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -4910,7 +5221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C583141F-5948-4E26-A05B-357C28402624}">
   <dimension ref="A1:C82"/>
   <sheetViews>
@@ -5803,200 +6114,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ED437A-B0D3-41FB-BF93-E93864D5F26A}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="22.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>20200717</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>20200717</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>20200717</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>20201002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>20201002</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>20201002</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7"/>
-      <c r="B7" s="3"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8"/>
-      <c r="B8" s="3"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9"/>
-      <c r="B9" s="3"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10"/>
-      <c r="B10" s="3"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11"/>
-      <c r="B11" s="3"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12"/>
-      <c r="B12" s="3"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19"/>
-      <c r="B19" s="3"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20"/>
-      <c r="B20" s="3"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21"/>
-      <c r="B21" s="3"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22"/>
-      <c r="B22" s="3"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23"/>
-      <c r="B23" s="3"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24"/>
-      <c r="B24" s="3"/>
-      <c r="C24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>